--- a/team_specific_matrix/Elon_A.xlsx
+++ b/team_specific_matrix/Elon_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1914893617021277</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="C2">
-        <v>0.5957446808510638</v>
+        <v>0.5742971887550201</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1170212765957447</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09574468085106383</v>
+        <v>0.1044176706827309</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008403361344537815</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C3">
-        <v>0.06722689075630252</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02521008403361345</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.680672268907563</v>
+        <v>0.7019867549668874</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2184873949579832</v>
+        <v>0.1986754966887417</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04166666666666666</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5416666666666666</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4166666666666667</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07051282051282051</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00641025641025641</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08333333333333333</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2311320754716981</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01282051282051282</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1538461538461539</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="R6">
-        <v>0.08974358974358974</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3584905660377358</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03846153846153846</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05384615384615385</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1230769230769231</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04615384615384616</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1769230769230769</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="S7">
-        <v>0.3692307692307693</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08176100628930817</v>
+        <v>0.09513274336283185</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01257861635220126</v>
+        <v>0.01106194690265487</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002212389380530973</v>
       </c>
       <c r="F8">
-        <v>0.06289308176100629</v>
+        <v>0.05973451327433629</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1383647798742138</v>
+        <v>0.1283185840707965</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02515723270440252</v>
+        <v>0.01991150442477876</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.160377358490566</v>
+        <v>0.1615044247787611</v>
       </c>
       <c r="R8">
-        <v>0.08176100628930817</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="S8">
-        <v>0.4371069182389937</v>
+        <v>0.4380530973451328</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05921052631578947</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02631578947368421</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="E9">
-        <v>0.006578947368421052</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="F9">
-        <v>0.07894736842105263</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08552631578947369</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0131578947368421</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2236842105263158</v>
+        <v>0.2146341463414634</v>
       </c>
       <c r="R9">
-        <v>0.1184210526315789</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="S9">
-        <v>0.3881578947368421</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1113861386138614</v>
+        <v>0.09869646182495345</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01361386138613861</v>
+        <v>0.01303538175046555</v>
       </c>
       <c r="E10">
-        <v>0.001237623762376238</v>
+        <v>0.0009310986964618249</v>
       </c>
       <c r="F10">
-        <v>0.07549504950495049</v>
+        <v>0.07914338919925512</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.120049504950495</v>
+        <v>0.1145251396648045</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02599009900990099</v>
+        <v>0.02420856610800745</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1831683168316832</v>
+        <v>0.1973929236499069</v>
       </c>
       <c r="R10">
-        <v>0.09777227722772278</v>
+        <v>0.1070763500931099</v>
       </c>
       <c r="S10">
-        <v>0.3712871287128713</v>
+        <v>0.3649906890130354</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1346153846153846</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1201923076923077</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="K11">
-        <v>0.2115384615384615</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="L11">
-        <v>0.5144230769230769</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01923076923076923</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7876106194690266</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1858407079646018</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.008849557522123894</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01769911504424779</v>
+        <v>0.0272108843537415</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03846153846153846</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1153846153846154</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0130718954248366</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.08496732026143791</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="I15">
-        <v>0.1045751633986928</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3349514563106796</v>
       </c>
       <c r="K15">
-        <v>0.05228758169934641</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0130718954248366</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08496732026143791</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3137254901960784</v>
+        <v>0.3058252427184466</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03478260869565217</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1739130434782609</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="I16">
-        <v>0.06956521739130435</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="J16">
-        <v>0.3478260869565217</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="K16">
-        <v>0.1304347826086956</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02608695652173913</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08695652173913043</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1304347826086956</v>
+        <v>0.1456953642384106</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02120141342756184</v>
+        <v>0.015</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1590106007067138</v>
+        <v>0.1725</v>
       </c>
       <c r="I17">
-        <v>0.127208480565371</v>
+        <v>0.1275</v>
       </c>
       <c r="J17">
-        <v>0.3639575971731449</v>
+        <v>0.3725</v>
       </c>
       <c r="K17">
-        <v>0.08833922261484099</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01060070671378092</v>
+        <v>0.01</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05653710247349823</v>
+        <v>0.0475</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1731448763250883</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006666666666666667</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2133333333333333</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="I18">
-        <v>0.08666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.3933333333333333</v>
+        <v>0.3954545454545454</v>
       </c>
       <c r="K18">
-        <v>0.12</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006666666666666667</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="N18">
-        <v>0.006666666666666667</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="O18">
-        <v>0.03333333333333333</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1333333333333333</v>
+        <v>0.1318181818181818</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01573033707865169</v>
+        <v>0.01965601965601966</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2393258426966292</v>
+        <v>0.2416052416052416</v>
       </c>
       <c r="I19">
-        <v>0.0853932584269663</v>
+        <v>0.07698607698607698</v>
       </c>
       <c r="J19">
-        <v>0.3393258426966292</v>
+        <v>0.3284193284193284</v>
       </c>
       <c r="K19">
-        <v>0.1056179775280899</v>
+        <v>0.09582309582309582</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02134831460674157</v>
+        <v>0.02211302211302211</v>
       </c>
       <c r="N19">
-        <v>0.001123595505617978</v>
+        <v>0.0008190008190008191</v>
       </c>
       <c r="O19">
-        <v>0.05617977528089887</v>
+        <v>0.06388206388206388</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1359550561797753</v>
+        <v>0.1506961506961507</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Elon_A.xlsx
+++ b/team_specific_matrix/Elon_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2048192771084337</v>
+        <v>0.2042253521126761</v>
       </c>
       <c r="C2">
-        <v>0.5742971887550201</v>
+        <v>0.5809859154929577</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1164658634538153</v>
+        <v>0.1091549295774648</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1044176706827309</v>
+        <v>0.1056338028169014</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006622516556291391</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="C3">
-        <v>0.06622516556291391</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02649006622516556</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7019867549668874</v>
+        <v>0.7283236994219653</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1986754966887417</v>
+        <v>0.1849710982658959</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03448275862068965</v>
+        <v>0.09375</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5172413793103449</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4482758620689655</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0660377358490566</v>
+        <v>0.06198347107438017</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004716981132075472</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07547169811320754</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2311320754716981</v>
+        <v>0.231404958677686</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01415094339622642</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.160377358490566</v>
+        <v>0.1611570247933884</v>
       </c>
       <c r="R6">
-        <v>0.08962264150943396</v>
+        <v>0.09504132231404959</v>
       </c>
       <c r="S6">
-        <v>0.3584905660377358</v>
+        <v>0.3553719008264463</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02923976608187134</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06432748538011696</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04678362573099415</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1929824561403509</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="R7">
-        <v>0.07602339181286549</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="S7">
-        <v>0.3684210526315789</v>
+        <v>0.3709677419354839</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09513274336283185</v>
+        <v>0.08964143426294821</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01106194690265487</v>
+        <v>0.01394422310756972</v>
       </c>
       <c r="E8">
-        <v>0.002212389380530973</v>
+        <v>0.00199203187250996</v>
       </c>
       <c r="F8">
-        <v>0.05973451327433629</v>
+        <v>0.05976095617529881</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1283185840707965</v>
+        <v>0.1294820717131474</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01991150442477876</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1615044247787611</v>
+        <v>0.1573705179282869</v>
       </c>
       <c r="R8">
-        <v>0.084070796460177</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="S8">
-        <v>0.4380530973451328</v>
+        <v>0.4402390438247012</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07804878048780488</v>
+        <v>0.08786610878661087</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01951219512195122</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="E9">
-        <v>0.004878048780487805</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="F9">
-        <v>0.05853658536585366</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08292682926829269</v>
+        <v>0.07112970711297072</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01463414634146342</v>
+        <v>0.02510460251046025</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2146341463414634</v>
+        <v>0.200836820083682</v>
       </c>
       <c r="R9">
-        <v>0.1365853658536585</v>
+        <v>0.1255230125523012</v>
       </c>
       <c r="S9">
-        <v>0.3902439024390244</v>
+        <v>0.397489539748954</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09869646182495345</v>
+        <v>0.1043405676126878</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01303538175046555</v>
+        <v>0.01252086811352254</v>
       </c>
       <c r="E10">
-        <v>0.0009310986964618249</v>
+        <v>0.0008347245409015025</v>
       </c>
       <c r="F10">
-        <v>0.07914338919925512</v>
+        <v>0.08013355592654424</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1145251396648045</v>
+        <v>0.1118530884808013</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02420856610800745</v>
+        <v>0.02170283806343907</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1973929236499069</v>
+        <v>0.1928213689482471</v>
       </c>
       <c r="R10">
-        <v>0.1070763500931099</v>
+        <v>0.1093489148580968</v>
       </c>
       <c r="S10">
-        <v>0.3649906890130354</v>
+        <v>0.3664440734557596</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1279069767441861</v>
+        <v>0.1245551601423488</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1085271317829457</v>
+        <v>0.1138790035587189</v>
       </c>
       <c r="K11">
-        <v>0.1937984496124031</v>
+        <v>0.1957295373665481</v>
       </c>
       <c r="L11">
-        <v>0.5465116279069767</v>
+        <v>0.5444839857651246</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02325581395348837</v>
+        <v>0.02135231316725979</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.782312925170068</v>
+        <v>0.76875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1768707482993197</v>
+        <v>0.1875</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01360544217687075</v>
+        <v>0.01875</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0272108843537415</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02564102564102564</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G13">
-        <v>0.717948717948718</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1538461538461539</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1025641025641026</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009708737864077669</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1116504854368932</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="I15">
-        <v>0.0970873786407767</v>
+        <v>0.1013215859030837</v>
       </c>
       <c r="J15">
-        <v>0.3349514563106796</v>
+        <v>0.3303964757709251</v>
       </c>
       <c r="K15">
-        <v>0.05339805825242718</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009708737864077669</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07766990291262135</v>
+        <v>0.07929515418502203</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3058252427184466</v>
+        <v>0.3083700440528634</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02649006622516556</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1854304635761589</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="I16">
-        <v>0.09933774834437085</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="J16">
-        <v>0.3311258278145696</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="K16">
-        <v>0.1125827814569536</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02649006622516556</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0728476821192053</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1456953642384106</v>
+        <v>0.132183908045977</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.015</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1725</v>
+        <v>0.1751152073732719</v>
       </c>
       <c r="I17">
-        <v>0.1275</v>
+        <v>0.1267281105990783</v>
       </c>
       <c r="J17">
-        <v>0.3725</v>
+        <v>0.3686635944700461</v>
       </c>
       <c r="K17">
-        <v>0.08500000000000001</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0475</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.17</v>
+        <v>0.1728110599078341</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004545454545454545</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2090909090909091</v>
+        <v>0.1983805668016194</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="J18">
-        <v>0.3954545454545454</v>
+        <v>0.3967611336032389</v>
       </c>
       <c r="K18">
-        <v>0.1090909090909091</v>
+        <v>0.1174089068825911</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01818181818181818</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="N18">
-        <v>0.004545454545454545</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="O18">
-        <v>0.02727272727272727</v>
+        <v>0.0242914979757085</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1318181818181818</v>
+        <v>0.1295546558704453</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01965601965601966</v>
+        <v>0.01910360029390154</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2416052416052416</v>
+        <v>0.2432035268185158</v>
       </c>
       <c r="I19">
-        <v>0.07698607698607698</v>
+        <v>0.08449669360764143</v>
       </c>
       <c r="J19">
-        <v>0.3284193284193284</v>
+        <v>0.3262307127112417</v>
       </c>
       <c r="K19">
-        <v>0.09582309582309582</v>
+        <v>0.09257898603967671</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02211302211302211</v>
+        <v>0.02351212343864805</v>
       </c>
       <c r="N19">
-        <v>0.0008190008190008191</v>
+        <v>0.0007347538574577516</v>
       </c>
       <c r="O19">
-        <v>0.06388206388206388</v>
+        <v>0.06318883174136664</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1506961506961507</v>
+        <v>0.1469507714915503</v>
       </c>
     </row>
   </sheetData>
